--- a/dataset/PlanoContas.xlsx
+++ b/dataset/PlanoContas.xlsx
@@ -1,42 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34ed68c2d0e7e9fe/YouTube/2024-05-12 - Fluxo de caixa/Projeto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuário\Documents\_rma\_tecnologia\_data\evolve_data\projetos\projeto_fluxo_de_caixa_evolve\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{22ED4564-9D3F-450D-AA32-49C32F766689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A33B00D0-8643-4DE6-8291-99BB9836C109}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8734D148-B211-4836-A73C-ACC1961DF281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{752E5475-DC94-4FA9-B84E-2B77A75F99A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{752E5475-DC94-4FA9-B84E-2B77A75F99A9}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanoContas" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>Receitas com vendas</t>
   </si>
@@ -150,13 +140,83 @@
   </si>
   <si>
     <t>Conta</t>
+  </si>
+  <si>
+    <t>Tabela: PlanoContas</t>
+  </si>
+  <si>
+    <t>Coluna</t>
+  </si>
+  <si>
+    <t>Tipo de Dado</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <r>
+      <t>Inteiro (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Identificador numérico do subgrupo contábil. Representa a categoria principal de contas (ex.: 1100 = Receitas com vendas, 2100 = Pagamento a fornecedores).</t>
+  </si>
+  <si>
+    <r>
+      <t>Texto (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Nome do subgrupo contábil, agrupando contas semelhantes (ex.: Receitas financeiras, Despesas com pessoal).</t>
+  </si>
+  <si>
+    <t>Identificador numérico único da conta dentro do respectivo subgrupo (ex.: 1101 = Vendas de produtos, 2201 = Salários).</t>
+  </si>
+  <si>
+    <t>Nome da conta contábil, detalhando o item específico de receita, despesa, imposto ou investimento.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,16 +230,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -187,12 +266,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,18 +656,18 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -572,7 +681,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1100</v>
       </c>
@@ -586,7 +695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1200</v>
       </c>
@@ -600,7 +709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1200</v>
       </c>
@@ -614,7 +723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>2100</v>
       </c>
@@ -628,7 +737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>2100</v>
       </c>
@@ -642,7 +751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>2100</v>
       </c>
@@ -656,7 +765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>2100</v>
       </c>
@@ -670,7 +779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>2100</v>
       </c>
@@ -684,7 +793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>2100</v>
       </c>
@@ -698,7 +807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>2100</v>
       </c>
@@ -712,7 +821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>2100</v>
       </c>
@@ -726,7 +835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>2100</v>
       </c>
@@ -740,7 +849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>2100</v>
       </c>
@@ -754,7 +863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>2100</v>
       </c>
@@ -768,7 +877,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>2100</v>
       </c>
@@ -782,7 +891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>2200</v>
       </c>
@@ -796,7 +905,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>2200</v>
       </c>
@@ -810,7 +919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>2200</v>
       </c>
@@ -824,7 +933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>2300</v>
       </c>
@@ -838,7 +947,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>2300</v>
       </c>
@@ -852,7 +961,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>2300</v>
       </c>
@@ -866,7 +975,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>2400</v>
       </c>
@@ -880,7 +989,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>2400</v>
       </c>
@@ -894,7 +1003,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>2400</v>
       </c>
@@ -908,7 +1017,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>2400</v>
       </c>
@@ -922,7 +1031,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>2500</v>
       </c>
@@ -936,7 +1045,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>2500</v>
       </c>
@@ -957,4 +1066,81 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F542E384-F9F1-4DDB-A240-274C4C8BB874}">
+  <dimension ref="B2:D8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="75.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="39.950000000000003" customHeight="1">
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="39.950000000000003" customHeight="1">
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="39.950000000000003" customHeight="1">
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="39.950000000000003" customHeight="1">
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/dataset/PlanoContas.xlsx
+++ b/dataset/PlanoContas.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuário\Documents\_rma\_tecnologia\_data\evolve_data\projetos\projeto_fluxo_de_caixa_evolve\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8734D148-B211-4836-A73C-ACC1961DF281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD95AE87-C52F-4AEF-8000-FA7D77C4AD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{752E5475-DC94-4FA9-B84E-2B77A75F99A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{752E5475-DC94-4FA9-B84E-2B77A75F99A9}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanoContas" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha1 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t>Receitas com vendas</t>
   </si>
@@ -210,6 +211,9 @@
   </si>
   <si>
     <t>Nome da conta contábil, detalhando o item específico de receita, despesa, imposto ou investimento.</t>
+  </si>
+  <si>
+    <t>Tabela: dim_contas</t>
   </si>
 </sst>
 </file>
@@ -655,7 +659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4D7506-AC81-431C-A149-2785727B75D7}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1143,4 +1147,83 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98ABF050-0C2F-4CD5-8580-BC4168A8F0BB}">
+  <dimension ref="B2:D8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="75.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="39.950000000000003" customHeight="1">
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="39.950000000000003" customHeight="1">
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="39.950000000000003" customHeight="1">
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="39.950000000000003" customHeight="1">
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>